--- a/Interview Question.xlsx
+++ b/Interview Question.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>SI #</t>
   </si>
@@ -142,6 +142,21 @@
   </si>
   <si>
     <t>L&amp;T</t>
+  </si>
+  <si>
+    <t>OLAP vs OLTP Data</t>
+  </si>
+  <si>
+    <t>This is nothing but, charts in visualization</t>
+  </si>
+  <si>
+    <t>SELECT REPLACE(CONVERT(NVARCHAR, getdate(),106),' ', '/') as date
+OR
+SELECT FORMAT(getdate(), "DD-MM-YYYY") as date</t>
+  </si>
+  <si>
+    <t>a. Power BI tends to drag slowly while handling bulk data. Whereas Tableau can handle large volumes of data quickly
+b. Tableau doesn't limit the number of data points in visualization or enforce row or size limitations</t>
   </si>
 </sst>
 </file>
@@ -187,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -286,7 +301,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -304,7 +319,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -319,12 +334,73 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -334,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,30 +428,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,6 +448,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,7 +778,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -762,223 +848,239 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="D9" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="26" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="C15" s="24"/>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="26" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
+      <c r="C18" s="24"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:C8"/>
-    <mergeCell ref="C9:C19"/>
+    <mergeCell ref="C9:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -1021,7 +1123,7 @@
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3"/>
@@ -1033,7 +1135,7 @@
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1043,7 +1145,7 @@
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,7 +1155,7 @@
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1063,7 +1165,7 @@
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1073,7 +1175,7 @@
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="3"/>
     </row>
   </sheetData>

--- a/Interview Question.xlsx
+++ b/Interview Question.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>SI #</t>
   </si>
@@ -157,6 +157,10 @@
   <si>
     <t>a. Power BI tends to drag slowly while handling bulk data. Whereas Tableau can handle large volumes of data quickly
 b. Tableau doesn't limit the number of data points in visualization or enforce row or size limitations</t>
+  </si>
+  <si>
+    <t>1. Online transaction processing (OLTP) captures, stores, and processes data from transactions in real time.
+2. Online analytical processing (OLAP) uses complex queries to analyze aggregated historical data from OLTP systems.</t>
   </si>
 </sst>
 </file>
@@ -410,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -428,18 +432,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -449,17 +448,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,8 +468,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,7 +795,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -850,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,220 +879,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="26" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="12"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="12"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="12"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="12"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="25"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="26" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="12"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="25"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="12"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="25"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="C19" s="19"/>
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="14"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="27" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1123,7 +1142,7 @@
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3"/>
@@ -1135,7 +1154,7 @@
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1145,7 +1164,7 @@
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1155,7 +1174,7 @@
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1165,7 +1184,7 @@
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1175,7 +1194,7 @@
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="3"/>
     </row>
   </sheetData>
